--- a/ServicesLayer/Task2/Data/Config.xlsx
+++ b/ServicesLayer/Task2/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\Task2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A100A3C3-90AD-4226-86C0-82305E4D0C4F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB966973-5B04-4B0A-AED6-B2951AE3EFE3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
@@ -744,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358C8B53-A61E-4F05-B727-D34F2E27D989}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -903,7 +903,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C2" t="s">

--- a/ServicesLayer/Task2/Data/Config.xlsx
+++ b/ServicesLayer/Task2/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\Task2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB966973-5B04-4B0A-AED6-B2951AE3EFE3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD52635-2D3B-49EA-9F2C-FE620392B668}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -102,24 +102,6 @@
     <t>Image accuracy high value, for images that have low contrast. Must be double</t>
   </si>
   <si>
-    <t>OrchestratorURL</t>
-  </si>
-  <si>
-    <t>The URL of your orchestrator server. This property is used only if you are using a Queue to store your Transaction Items.</t>
-  </si>
-  <si>
-    <t>OrchestratorCredentialName</t>
-  </si>
-  <si>
-    <t>The name of Orchestrator credentials. This should be stored in Windows Credential manager. This property is used only if you are using a Queue to store your Transaction Items.</t>
-  </si>
-  <si>
-    <t>OrchestratorTenancyName</t>
-  </si>
-  <si>
-    <t>The name of the Orchestrator tenant.  This property is used only if you are using a Queue to store your Transaction Items.</t>
-  </si>
-  <si>
     <t>OrchestratorQueueName</t>
   </si>
   <si>
@@ -183,9 +165,6 @@
     <t xml:space="preserve">You may want to mark keys in this settings dictionary with certain colours. One use I've needed for colors was to define the keys needed in the operation of the framework. </t>
   </si>
   <si>
-    <t>This Key is used only during Debug. You can delete in production</t>
-  </si>
-  <si>
     <t>This key belongs to user designated category 1</t>
   </si>
   <si>
@@ -232,6 +211,9 @@
   </si>
   <si>
     <t>####  Legend of Key Value pair colours####</t>
+  </si>
+  <si>
+    <t>This key belongs to user designated category 2</t>
   </si>
 </sst>
 </file>
@@ -412,9 +394,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -422,6 +401,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -744,7 +726,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358C8B53-A61E-4F05-B727-D34F2E27D989}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -753,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75">
@@ -761,90 +745,90 @@
     </row>
     <row r="3" spans="1:1" ht="60">
       <c r="A3" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75">
-      <c r="A4" s="14" t="s">
-        <v>58</v>
+      <c r="A4" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
-        <v>59</v>
+      <c r="A5" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75">
-      <c r="A6" s="14" t="s">
-        <v>60</v>
+      <c r="A6" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="45">
-      <c r="A7" s="15" t="s">
-        <v>61</v>
+      <c r="A7" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75">
-      <c r="A8" s="14" t="s">
-        <v>62</v>
+      <c r="A8" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
-        <v>63</v>
+      <c r="A9" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75">
-      <c r="A10" s="14" t="s">
-        <v>64</v>
+      <c r="A10" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="45">
-      <c r="A11" s="15" t="s">
-        <v>65</v>
+      <c r="A11" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75">
-      <c r="A12" s="14" t="s">
-        <v>66</v>
+      <c r="A12" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30">
-      <c r="A13" s="15" t="s">
-        <v>67</v>
+      <c r="A13" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30">
-      <c r="A16" s="16" t="s">
-        <v>51</v>
+      <c r="A16" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="13" t="s">
-        <v>52</v>
+      <c r="A20" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -856,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -904,10 +888,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -1894,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC672C-F735-4EF3-8287-9B35E6A7A36A}">
-  <dimension ref="A1:Z991"/>
+  <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1942,30 +1926,9 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
@@ -2936,9 +2899,6 @@
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2972,68 +2932,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3099,29 +3059,29 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -4237,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>

--- a/ServicesLayer/Task2/Data/Config.xlsx
+++ b/ServicesLayer/Task2/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Documents\UiPath\new\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD52635-2D3B-49EA-9F2C-FE620392B668}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972AD984-BB85-41C5-8873-E3850FB04907}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -114,27 +114,12 @@
     <t>Description (Assets will always overwrite other config)</t>
   </si>
   <si>
-    <t>wbInit_Type</t>
-  </si>
-  <si>
     <t>wbGetTransactionData_Type</t>
   </si>
   <si>
     <t>wbProcessTransaction_Type</t>
   </si>
   <si>
-    <t>wbInit_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>wbGetTransactionData_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>wbProcessTransaction_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>Do not log successful executions of wb</t>
-  </si>
-  <si>
     <t>Name of Workblock</t>
   </si>
   <si>
@@ -214,6 +199,15 @@
   </si>
   <si>
     <t>This key belongs to user designated category 2</t>
+  </si>
+  <si>
+    <t>wbInitAllApplications_Type</t>
+  </si>
+  <si>
+    <t>wbCloseAllApplications_Type</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -737,7 +731,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75">
@@ -745,57 +739,57 @@
     </row>
     <row r="3" spans="1:1" ht="60">
       <c r="A3" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75">
       <c r="A4" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75">
       <c r="A6" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="45">
       <c r="A7" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75">
       <c r="A8" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75">
       <c r="A10" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="45">
       <c r="A11" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75">
       <c r="A12" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30">
       <c r="A13" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -803,32 +797,32 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30">
       <c r="A16" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1880,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC672C-F735-4EF3-8287-9B35E6A7A36A}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2906,10 +2900,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B87B5F-FB11-4C00-9666-7AE89EF4CC06}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2932,24 +2926,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3" t="b">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2957,43 +2951,21 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="b">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3059,29 +3031,29 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">

--- a/ServicesLayer/Task2/Data/Config.xlsx
+++ b/ServicesLayer/Task2/Data/Config.xlsx
@@ -5,27 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Documents\UiPath\new\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Documents\UiPath\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972AD984-BB85-41C5-8873-E3850FB04907}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0D6175-8C81-4A49-9701-2939C50ACBFB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
     <sheet name="Settings" sheetId="1" r:id="rId2"/>
     <sheet name="Credentials" sheetId="6" r:id="rId3"/>
-    <sheet name="Workblocks" sheetId="4" r:id="rId4"/>
-    <sheet name="Constants" sheetId="2" r:id="rId5"/>
-    <sheet name="Assets" sheetId="3" r:id="rId6"/>
+    <sheet name="Constants" sheetId="2" r:id="rId4"/>
+    <sheet name="Assets" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -114,25 +113,7 @@
     <t>Description (Assets will always overwrite other config)</t>
   </si>
   <si>
-    <t>wbGetTransactionData_Type</t>
-  </si>
-  <si>
-    <t>wbProcessTransaction_Type</t>
-  </si>
-  <si>
-    <t>Name of Workblock</t>
-  </si>
-  <si>
     <t>MaxInitRetryNumber</t>
-  </si>
-  <si>
-    <t>Init</t>
-  </si>
-  <si>
-    <t>GetData</t>
-  </si>
-  <si>
-    <t>Process</t>
   </si>
   <si>
     <t>MaxContinuousRetryNumber</t>
@@ -177,12 +158,6 @@
     <t>The credentials sheet is the place to store your credential names.There is also one special credential, that needs to be defined only once, and which is comprised of the URL, TenancyName and CredentialName required to authenticate to the Orchestrator server using REST API. This is only used when working with QueueItems.</t>
   </si>
   <si>
-    <t>Workblocks</t>
-  </si>
-  <si>
-    <t>The workblock names are of the states in the framework. Define the names of workblocks you create here.</t>
-  </si>
-  <si>
     <t>Constants</t>
   </si>
   <si>
@@ -199,15 +174,6 @@
   </si>
   <si>
     <t>This key belongs to user designated category 2</t>
-  </si>
-  <si>
-    <t>wbInitAllApplications_Type</t>
-  </si>
-  <si>
-    <t>wbCloseAllApplications_Type</t>
-  </si>
-  <si>
-    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -358,13 +324,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -718,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358C8B53-A61E-4F05-B727-D34F2E27D989}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -730,99 +693,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
-      <c r="A1" s="8" t="s">
-        <v>44</v>
+      <c r="A1" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75">
-      <c r="A2" s="8"/>
+      <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:1" ht="60">
-      <c r="A3" s="7" t="s">
-        <v>45</v>
+      <c r="A3" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75">
-      <c r="A4" s="13" t="s">
-        <v>46</v>
+      <c r="A4" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
-        <v>47</v>
+      <c r="A5" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75">
-      <c r="A6" s="13" t="s">
-        <v>48</v>
+      <c r="A6" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="45">
-      <c r="A7" s="14" t="s">
-        <v>49</v>
+      <c r="A7" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75">
-      <c r="A8" s="13" t="s">
-        <v>50</v>
+      <c r="A8" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="14" t="s">
-        <v>51</v>
+    <row r="9" spans="1:1" ht="45">
+      <c r="A9" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75">
-      <c r="A10" s="13" t="s">
-        <v>52</v>
+      <c r="A10" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="45">
-      <c r="A11" s="14" t="s">
-        <v>53</v>
+    <row r="11" spans="1:1" ht="30">
+      <c r="A11" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75">
-      <c r="A12" s="13" t="s">
-        <v>54</v>
-      </c>
+    <row r="12" spans="1:1">
+      <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:1" ht="30">
-      <c r="A13" s="14" t="s">
-        <v>55</v>
+    <row r="13" spans="1:1">
+      <c r="A13" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:1" ht="30">
+      <c r="A14" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30">
-      <c r="A16" s="15" t="s">
-        <v>40</v>
+    <row r="16" spans="1:1">
+      <c r="A16" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
-        <v>42</v>
+      <c r="A17" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="16" t="s">
-        <v>57</v>
+      <c r="A18" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +834,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
@@ -889,7 +842,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
@@ -2899,81 +2852,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B87B5F-FB11-4C00-9666-7AE89EF4CC06}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
@@ -3024,40 +2902,40 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
+      <c r="A3" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>36</v>
+      <c r="A4" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -3069,7 +2947,7 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7">
@@ -3080,7 +2958,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -3091,7 +2969,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3103,7 +2981,7 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B11">
@@ -3114,7 +2992,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B12">
@@ -3125,7 +3003,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B13">
@@ -3137,7 +3015,7 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B15">
@@ -3148,7 +3026,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B16">
@@ -3159,7 +3037,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B17">
@@ -4153,7 +4031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
